--- a/stored_variables/11/spectrum/solid_angle_of_binwidth_1.5.xlsx
+++ b/stored_variables/11/spectrum/solid_angle_of_binwidth_1.5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B412"/>
+  <dimension ref="A1:B467"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,4111 +448,4661 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>(1076, 1078)</t>
+          <t>(1000, 1001)</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.787575785983291e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>(1078, 1079)</t>
+          <t>(1001, 1003)</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.000134975295251804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>(1079, 1081)</t>
+          <t>(1003, 1004)</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0002036037085731712</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>(1081, 1082)</t>
+          <t>(1004, 1006)</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0002530159828398977</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>(1082, 1084)</t>
+          <t>(1006, 1007)</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0002935883627025359</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>(1084, 1085)</t>
+          <t>(1007, 1009)</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0003285712506665955</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>(1085, 1087)</t>
+          <t>(1009, 1010)</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0003594778862913055</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>(1087, 1088)</t>
+          <t>(1010, 1012)</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0003874434974957031</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>(1088, 1090)</t>
+          <t>(1012, 1013)</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.0004080520446382902</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>(1090, 1091)</t>
+          <t>(1013, 1015)</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.0004216774562342201</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>(1091, 1093)</t>
+          <t>(1015, 1016)</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.0004311788666199705</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>(1093, 1094)</t>
+          <t>(1016, 1018)</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.0004331108474202133</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>(1094, 1096)</t>
+          <t>(1018, 1019)</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.0004327581574647419</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>(1096, 1097)</t>
+          <t>(1019, 1021)</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0004300141653139069</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>(1097, 1099)</t>
+          <t>(1021, 1022)</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.0004297940886453873</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>(1099, 1100)</t>
+          <t>(1022, 1024)</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.0004273645653125783</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>(1100, 1102)</t>
+          <t>(1024, 1025)</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.0004252558487308007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>(1102, 1103)</t>
+          <t>(1025, 1027)</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.0004256823305809249</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>(1103, 1105)</t>
+          <t>(1027, 1028)</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.0004229063181312963</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>(1105, 1106)</t>
+          <t>(1028, 1030)</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.0004213009206525409</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>(1106, 1108)</t>
+          <t>(1030, 1031)</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.0004196240759795443</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>(1108, 1109)</t>
+          <t>(1031, 1033)</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.0004183627639584432</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>(1109, 1111)</t>
+          <t>(1033, 1034)</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.0004167822485443205</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>(1111, 1112)</t>
+          <t>(1034, 1036)</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.0004156325880518606</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>(1112, 1114)</t>
+          <t>(1036, 1037)</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.0004141882335782334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>(1114, 1115)</t>
+          <t>(1037, 1039)</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.0004130669074219053</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>(1115, 1117)</t>
+          <t>(1039, 1040)</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.0004115379166766333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>(1117, 1118)</t>
+          <t>(1040, 1042)</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.0004101718211961436</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>(1118, 1120)</t>
+          <t>(1042, 1043)</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.0004084175386684202</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>(1120, 1121)</t>
+          <t>(1043, 1045)</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.0004060654576789481</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>(1121, 1123)</t>
+          <t>(1045, 1046)</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.0004060695832375417</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>(1123, 1124)</t>
+          <t>(1046, 1048)</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.0004046784506275087</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>(1124, 1126)</t>
+          <t>(1048, 1049)</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.0004017024827591414</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>(1126, 1127)</t>
+          <t>(1049, 1051)</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.000402192022361562</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>(1127, 1129)</t>
+          <t>(1051, 1052)</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.0004001693389114077</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>(1129, 1130)</t>
+          <t>(1052, 1054)</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.0003982510813154395</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>(1130, 1132)</t>
+          <t>(1054, 1055)</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.0003975363225265348</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>(1132, 1133)</t>
+          <t>(1055, 1057)</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.0003960253304493213</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>(1133, 1135)</t>
+          <t>(1057, 1058)</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.0003934676311397678</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>(1135, 1136)</t>
+          <t>(1058, 1060)</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.0003945697441753528</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>(1136, 1138)</t>
+          <t>(1060, 1061)</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.0003916788892859969</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>(1138, 1139)</t>
+          <t>(1061, 1063)</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.0003898669849224951</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>(1139, 1141)</t>
+          <t>(1063, 1064)</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.0003898545887519498</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>(1141, 1142)</t>
+          <t>(1064, 1066)</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.0003885472768091389</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>(1142, 1144)</t>
+          <t>(1066, 1067)</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.0003865706181634299</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>(1144, 1145)</t>
+          <t>(1067, 1069)</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.0003851912429837716</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>(1145, 1147)</t>
+          <t>(1069, 1070)</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.0003841049591142035</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>(1147, 1148)</t>
+          <t>(1070, 1072)</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.0003826459032943065</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>(1148, 1150)</t>
+          <t>(1072, 1073)</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.0003815948806710615</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>(1150, 1151)</t>
+          <t>(1073, 1075)</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.0003803759433269337</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>(1151, 1153)</t>
+          <t>(1075, 1076)</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.000379193292409197</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>(1153, 1154)</t>
+          <t>(1076, 1078)</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.0003779186381466112</v>
+        <v>1.787575785983291e-05</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>(1154, 1156)</t>
+          <t>(1078, 1079)</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.0003766286043002394</v>
+        <v>0.000134975295251804</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>(1156, 1157)</t>
+          <t>(1079, 1081)</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.0003752849605318013</v>
+        <v>0.0002036037085731712</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>(1157, 1159)</t>
+          <t>(1081, 1082)</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.0003726118492998778</v>
+        <v>0.0002530159828398977</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>(1159, 1160)</t>
+          <t>(1082, 1084)</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.0003735279246477924</v>
+        <v>0.0002935883627025359</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>(1160, 1162)</t>
+          <t>(1084, 1085)</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.0003722826443384308</v>
+        <v>0.0003285712506665955</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>(1162, 1163)</t>
+          <t>(1085, 1087)</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.0003705793790382503</v>
+        <v>0.0003594778862913055</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>(1163, 1165)</t>
+          <t>(1087, 1088)</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.0003683028207823537</v>
+        <v>0.0003874434974957031</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>(1165, 1166)</t>
+          <t>(1088, 1090)</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.0003688502723843644</v>
+        <v>0.0004080520446382902</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>(1166, 1168)</t>
+          <t>(1090, 1091)</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.0003665072380255957</v>
+        <v>0.0004216774562342201</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>(1168, 1169)</t>
+          <t>(1091, 1093)</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.0003657252819393459</v>
+        <v>0.0004311788666199705</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>(1169, 1171)</t>
+          <t>(1093, 1094)</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.0003646698371447031</v>
+        <v>0.0004331108474202133</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>(1171, 1172)</t>
+          <t>(1094, 1096)</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.0003628475390313506</v>
+        <v>0.0004327581574647419</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>(1172, 1174)</t>
+          <t>(1096, 1097)</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.0003627269500549896</v>
+        <v>0.0004300141653139069</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>(1174, 1175)</t>
+          <t>(1097, 1099)</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.0003606861686541506</v>
+        <v>0.0004297940886453873</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>(1175, 1177)</t>
+          <t>(1099, 1100)</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.0003587356571353623</v>
+        <v>0.0004273645653125783</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>(1177, 1178)</t>
+          <t>(1100, 1102)</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.0003599099094326674</v>
+        <v>0.0004252558487308007</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>(1178, 1180)</t>
+          <t>(1102, 1103)</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.0003568936151759111</v>
+        <v>0.0004256823305809249</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>(1180, 1181)</t>
+          <t>(1103, 1105)</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.000356548340711918</v>
+        <v>0.0004229063181312963</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>(1181, 1183)</t>
+          <t>(1105, 1106)</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.0003556848853512773</v>
+        <v>0.0004213009206525409</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>(1183, 1184)</t>
+          <t>(1106, 1108)</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.0003537725682382914</v>
+        <v>0.0004196240759795443</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>(1184, 1186)</t>
+          <t>(1108, 1109)</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.000352472170455956</v>
+        <v>0.0004183627639584432</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>(1186, 1187)</t>
+          <t>(1109, 1111)</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.0003514250076907445</v>
+        <v>0.0004167822485443205</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>(1187, 1189)</t>
+          <t>(1111, 1112)</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.0003520661658390285</v>
+        <v>0.0004156325880518606</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>(1189, 1190)</t>
+          <t>(1112, 1114)</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.000349820422645199</v>
+        <v>0.0004141882335782334</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>(1190, 1192)</t>
+          <t>(1114, 1115)</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.0003484619941421022</v>
+        <v>0.0004130669074219053</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>(1192, 1193)</t>
+          <t>(1115, 1117)</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.0003473592039788018</v>
+        <v>0.0004115379166766333</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>(1193, 1195)</t>
+          <t>(1117, 1118)</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.0003463479643663668</v>
+        <v>0.0004101718211961436</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>(1195, 1196)</t>
+          <t>(1118, 1120)</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.0003452417212990028</v>
+        <v>0.0004084175386684202</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>(1196, 1198)</t>
+          <t>(1120, 1121)</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.0003442685080142767</v>
+        <v>0.0004060654576789481</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>(1198, 1199)</t>
+          <t>(1121, 1123)</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.0003433170167427671</v>
+        <v>0.0004060695832375417</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>(1199, 1201)</t>
+          <t>(1123, 1124)</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.0003422661276309659</v>
+        <v>0.0004046784506275087</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>(1201, 1202)</t>
+          <t>(1124, 1126)</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.0003411098287203866</v>
+        <v>0.0004017024827591414</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>(1202, 1204)</t>
+          <t>(1126, 1127)</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.0003398614165044394</v>
+        <v>0.000402192022361562</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>(1204, 1205)</t>
+          <t>(1127, 1129)</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.000338764569885686</v>
+        <v>0.0004001693389114077</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>(1205, 1207)</t>
+          <t>(1129, 1130)</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.0003367166273029151</v>
+        <v>0.0003982510813154395</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>(1207, 1208)</t>
+          <t>(1130, 1132)</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.0003375222532678625</v>
+        <v>0.0003975363225265348</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>(1208, 1210)</t>
+          <t>(1132, 1133)</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.0003363716649924777</v>
+        <v>0.0003960253304493213</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>(1210, 1211)</t>
+          <t>(1133, 1135)</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.0003350445098261133</v>
+        <v>0.0003934676311397678</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>(1211, 1213)</t>
+          <t>(1135, 1136)</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.000332388229407757</v>
+        <v>0.0003945697441753528</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>(1213, 1214)</t>
+          <t>(1136, 1138)</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.0003334976476732355</v>
+        <v>0.0003916788892859969</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>(1214, 1216)</t>
+          <t>(1138, 1139)</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.0003323515933101703</v>
+        <v>0.0003898669849224951</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>(1216, 1217)</t>
+          <t>(1139, 1141)</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.0003297554912285993</v>
+        <v>0.0003898545887519498</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>(1217, 1219)</t>
+          <t>(1141, 1142)</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.0003303665407494997</v>
+        <v>0.0003885472768091389</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>(1219, 1220)</t>
+          <t>(1142, 1144)</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.0003292119341666973</v>
+        <v>0.0003865706181634299</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>(1220, 1222)</t>
+          <t>(1144, 1145)</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.0003267020273156474</v>
+        <v>0.0003851912429837716</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>(1222, 1223)</t>
+          <t>(1145, 1147)</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.0003277633182241312</v>
+        <v>0.0003841049591142035</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>(1223, 1225)</t>
+          <t>(1147, 1148)</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.0003245363505123678</v>
+        <v>0.0003826459032943065</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>(1225, 1226)</t>
+          <t>(1148, 1150)</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.0003260652751317725</v>
+        <v>0.0003815948806710615</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>(1226, 1228)</t>
+          <t>(1150, 1151)</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0.0003226222736623206</v>
+        <v>0.0003803759433269337</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>(1228, 1229)</t>
+          <t>(1151, 1153)</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0.0003239294639416315</v>
+        <v>0.000379193292409197</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>(1229, 1231)</t>
+          <t>(1153, 1154)</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0.0003212132281233304</v>
+        <v>0.0003779186381466112</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>(1231, 1232)</t>
+          <t>(1154, 1156)</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0.0003212824352924986</v>
+        <v>0.0003766286043002394</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>(1232, 1234)</t>
+          <t>(1156, 1157)</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0.0003203112431926104</v>
+        <v>0.0003752849605318013</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>(1234, 1235)</t>
+          <t>(1157, 1159)</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0.0003179547160549743</v>
+        <v>0.0003726118492998778</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>(1235, 1237)</t>
+          <t>(1159, 1160)</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0.0003189795150673488</v>
+        <v>0.0003735279246477924</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>(1237, 1238)</t>
+          <t>(1160, 1162)</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0.0003171101056034375</v>
+        <v>0.0003722826443384308</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>(1238, 1240)</t>
+          <t>(1162, 1163)</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>0.0003156219191879625</v>
+        <v>0.0003705793790382503</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>(1240, 1241)</t>
+          <t>(1163, 1165)</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>0.0003141891247524316</v>
+        <v>0.0003683028207823537</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>(1241, 1243)</t>
+          <t>(1165, 1166)</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>0.000316172824547323</v>
+        <v>0.0003688502723843644</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>(1243, 1244)</t>
+          <t>(1166, 1168)</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>0.0003133223934468645</v>
+        <v>0.0003665072380255957</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>(1244, 1246)</t>
+          <t>(1168, 1169)</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>0.0003119272975104993</v>
+        <v>0.0003657252819393459</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>(1246, 1247)</t>
+          <t>(1169, 1171)</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>0.0003111417801236285</v>
+        <v>0.0003646698371447031</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>(1247, 1249)</t>
+          <t>(1171, 1172)</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>0.0003100643306808467</v>
+        <v>0.0003628475390313506</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>(1249, 1250)</t>
+          <t>(1172, 1174)</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>0.0003104523822402498</v>
+        <v>0.0003627269500549896</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>(1250, 1252)</t>
+          <t>(1174, 1175)</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>0.0003096538302216188</v>
+        <v>0.0003606861686541506</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>(1252, 1253)</t>
+          <t>(1175, 1177)</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>0.000307907615311556</v>
+        <v>0.0003587356571353623</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>(1253, 1255)</t>
+          <t>(1177, 1178)</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>0.0003072057068254389</v>
+        <v>0.0003599099094326674</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>(1255, 1256)</t>
+          <t>(1178, 1180)</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>0.0003060881396349319</v>
+        <v>0.0003568936151759111</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>(1256, 1258)</t>
+          <t>(1180, 1181)</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>0.0003053105475036555</v>
+        <v>0.000356548340711918</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>(1258, 1259)</t>
+          <t>(1181, 1183)</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>0.0003045304936198972</v>
+        <v>0.0003556848853512773</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>(1259, 1261)</t>
+          <t>(1183, 1184)</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>0.0003033590142816467</v>
+        <v>0.0003537725682382914</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>(1261, 1262)</t>
+          <t>(1184, 1186)</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>0.0003025239541219924</v>
+        <v>0.000352472170455956</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>(1262, 1264)</t>
+          <t>(1186, 1187)</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>0.0003016857832452871</v>
+        <v>0.0003514250076907445</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>(1264, 1265)</t>
+          <t>(1187, 1189)</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>0.000300423413548961</v>
+        <v>0.0003520661658390285</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>(1265, 1267)</t>
+          <t>(1189, 1190)</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>0.0002991460435858006</v>
+        <v>0.000349820422645199</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>(1267, 1268)</t>
+          <t>(1190, 1192)</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>0.0002994465355143614</v>
+        <v>0.0003484619941421022</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>(1268, 1270)</t>
+          <t>(1192, 1193)</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>0.0002990639768945104</v>
+        <v>0.0003473592039788018</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>(1270, 1271)</t>
+          <t>(1193, 1195)</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>0.0002977943398604504</v>
+        <v>0.0003463479643663668</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>(1271, 1273)</t>
+          <t>(1195, 1196)</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>0.0002970370424949519</v>
+        <v>0.0003452417212990028</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>(1273, 1274)</t>
+          <t>(1196, 1198)</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>0.0002950832382060663</v>
+        <v>0.0003442685080142767</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>(1274, 1276)</t>
+          <t>(1198, 1199)</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>0.0002941983035315122</v>
+        <v>0.0003433170167427671</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>(1276, 1277)</t>
+          <t>(1199, 1201)</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>0.0002947788980032419</v>
+        <v>0.0003422661276309659</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>(1277, 1279)</t>
+          <t>(1201, 1202)</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>0.0002938054063614165</v>
+        <v>0.0003411098287203866</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>(1279, 1280)</t>
+          <t>(1202, 1204)</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>0.0002910533468313514</v>
+        <v>0.0003398614165044394</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>(1280, 1282)</t>
+          <t>(1204, 1205)</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>0.0002924043412273415</v>
+        <v>0.000338764569885686</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>(1282, 1283)</t>
+          <t>(1205, 1207)</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>0.0002913356271961117</v>
+        <v>0.0003367166273029151</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>(1283, 1285)</t>
+          <t>(1207, 1208)</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>0.0002885171967053325</v>
+        <v>0.0003375222532678625</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>(1285, 1286)</t>
+          <t>(1208, 1210)</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>0.0002901437772176893</v>
+        <v>0.0003363716649924777</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>(1286, 1288)</t>
+          <t>(1210, 1211)</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>0.0002889123055452925</v>
+        <v>0.0003350445098261133</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>(1288, 1289)</t>
+          <t>(1211, 1213)</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>0.0002862887914929825</v>
+        <v>0.000332388229407757</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>(1289, 1291)</t>
+          <t>(1213, 1214)</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>0.0002877139095353053</v>
+        <v>0.0003334976476732355</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>(1291, 1292)</t>
+          <t>(1214, 1216)</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>0.0002843633050974848</v>
+        <v>0.0003323515933101703</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>(1292, 1294)</t>
+          <t>(1216, 1217)</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>0.0002868477194856521</v>
+        <v>0.0003297554912285993</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>(1294, 1295)</t>
+          <t>(1217, 1219)</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>0.000282740950658911</v>
+        <v>0.0003303665407494997</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>(1295, 1297)</t>
+          <t>(1219, 1220)</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>0.0002849760555679711</v>
+        <v>0.0003292119341666973</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>(1297, 1298)</t>
+          <t>(1220, 1222)</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>0.00028145769475008</v>
+        <v>0.0003267020273156474</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>(1298, 1300)</t>
+          <t>(1222, 1223)</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>0.0002835916407706208</v>
+        <v>0.0003277633182241312</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>(1300, 1301)</t>
+          <t>(1223, 1225)</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>0.0002799959399650405</v>
+        <v>0.0003245363505123678</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>(1301, 1303)</t>
+          <t>(1225, 1226)</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>0.0002816458711341593</v>
+        <v>0.0003260652751317725</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>(1303, 1304)</t>
+          <t>(1226, 1228)</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>0.0002790053204370698</v>
+        <v>0.0003226222736623206</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>(1304, 1306)</t>
+          <t>(1228, 1229)</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>0.0002792257808983965</v>
+        <v>0.0003239294639416315</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>(1306, 1307)</t>
+          <t>(1229, 1231)</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>0.0002784435846824287</v>
+        <v>0.0003212132281233304</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>(1307, 1309)</t>
+          <t>(1231, 1232)</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>0.0002762901532051374</v>
+        <v>0.0003212824352924986</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>(1309, 1310)</t>
+          <t>(1232, 1234)</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>0.0002775436233478623</v>
+        <v>0.0003203112431926104</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>(1310, 1312)</t>
+          <t>(1234, 1235)</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>0.0002758153544600269</v>
+        <v>0.0003179547160549743</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>(1312, 1313)</t>
+          <t>(1235, 1237)</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>0.0002742101617268392</v>
+        <v>0.0003189795150673488</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>(1313, 1315)</t>
+          <t>(1237, 1238)</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>0.0002748967023022766</v>
+        <v>0.0003171101056034375</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>(1315, 1316)</t>
+          <t>(1238, 1240)</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>0.0002742644370941143</v>
+        <v>0.0003156219191879625</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>(1316, 1318)</t>
+          <t>(1240, 1241)</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>0.0002724235766236675</v>
+        <v>0.0003141891247524316</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>(1318, 1319)</t>
+          <t>(1241, 1243)</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>0.0002714690325542306</v>
+        <v>0.000316172824547323</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>(1319, 1321)</t>
+          <t>(1243, 1244)</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>0.0002713713979619724</v>
+        <v>0.0003133223934468645</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>(1321, 1322)</t>
+          <t>(1244, 1246)</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>0.0002715925643584513</v>
+        <v>0.0003119272975104993</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>(1322, 1324)</t>
+          <t>(1246, 1247)</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>0.0002700465353227135</v>
+        <v>0.0003111417801236285</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>(1324, 1325)</t>
+          <t>(1247, 1249)</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>0.000268863334273943</v>
+        <v>0.0003100643306808467</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>(1325, 1327)</t>
+          <t>(1249, 1250)</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>0.0002679281785823227</v>
+        <v>0.0003104523822402498</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>(1327, 1328)</t>
+          <t>(1250, 1252)</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>0.0002672744299389796</v>
+        <v>0.0003096538302216188</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>(1328, 1330)</t>
+          <t>(1252, 1253)</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>0.0002666184704780593</v>
+        <v>0.000307907615311556</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>(1330, 1331)</t>
+          <t>(1253, 1255)</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>0.0002676124874305621</v>
+        <v>0.0003072057068254389</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>(1331, 1333)</t>
+          <t>(1255, 1256)</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>0.0002660017546797072</v>
+        <v>0.0003060881396349319</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>(1333, 1334)</t>
+          <t>(1256, 1258)</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>0.000265036029367769</v>
+        <v>0.0003053105475036555</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>(1334, 1336)</t>
+          <t>(1258, 1259)</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>0.0002642178656233226</v>
+        <v>0.0003045304936198972</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>(1336, 1337)</t>
+          <t>(1259, 1261)</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>0.0002634784496434656</v>
+        <v>0.0003033590142816467</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>(1337, 1339)</t>
+          <t>(1261, 1262)</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>0.0002626110812979928</v>
+        <v>0.0003025239541219924</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>(1339, 1340)</t>
+          <t>(1262, 1264)</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>0.0002622768384800127</v>
+        <v>0.0003016857832452871</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>(1340, 1342)</t>
+          <t>(1264, 1265)</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>0.0002613783813596123</v>
+        <v>0.000300423413548961</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>(1342, 1343)</t>
+          <t>(1265, 1267)</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>0.0002606097105412926</v>
+        <v>0.0002991460435858006</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>(1343, 1345)</t>
+          <t>(1267, 1268)</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>0.0002602191878760823</v>
+        <v>0.0002994465355143614</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>(1345, 1346)</t>
+          <t>(1268, 1270)</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>0.0002591611046317329</v>
+        <v>0.0002990639768945104</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>(1346, 1348)</t>
+          <t>(1270, 1271)</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>0.0002587180494888782</v>
+        <v>0.0002977943398604504</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>(1348, 1349)</t>
+          <t>(1271, 1273)</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>0.0002574277106658812</v>
+        <v>0.0002970370424949519</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>(1349, 1351)</t>
+          <t>(1273, 1274)</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>0.0002558172135361199</v>
+        <v>0.0002950832382060663</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>(1351, 1352)</t>
+          <t>(1274, 1276)</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>0.0002573834153503957</v>
+        <v>0.0002941983035315122</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>(1352, 1354)</t>
+          <t>(1276, 1277)</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>0.0002562976600150076</v>
+        <v>0.0002947788980032419</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>(1354, 1355)</t>
+          <t>(1277, 1279)</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>0.0002556912701498647</v>
+        <v>0.0002938054063614165</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>(1355, 1357)</t>
+          <t>(1279, 1280)</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>0.0002550336907490496</v>
+        <v>0.0002910533468313514</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>(1357, 1358)</t>
+          <t>(1280, 1282)</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>0.0002539901489745302</v>
+        <v>0.0002924043412273415</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>(1358, 1360)</t>
+          <t>(1282, 1283)</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>0.0002527331256927615</v>
+        <v>0.0002913356271961117</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>(1360, 1361)</t>
+          <t>(1283, 1285)</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>0.000251683361543752</v>
+        <v>0.0002885171967053325</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>(1361, 1363)</t>
+          <t>(1285, 1286)</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>0.0002529852943282183</v>
+        <v>0.0002901437772176893</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>(1363, 1364)</t>
+          <t>(1286, 1288)</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>0.0002517092130056642</v>
+        <v>0.0002889123055452925</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>(1364, 1366)</t>
+          <t>(1288, 1289)</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>0.0002506756512885408</v>
+        <v>0.0002862887914929825</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>(1366, 1367)</t>
+          <t>(1289, 1291)</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>0.0002485289673657206</v>
+        <v>0.0002877139095353053</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>(1367, 1369)</t>
+          <t>(1291, 1292)</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>0.0002504564489596088</v>
+        <v>0.0002843633050974848</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>(1369, 1370)</t>
+          <t>(1292, 1294)</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>0.0002492490507320743</v>
+        <v>0.0002868477194856521</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>(1370, 1372)</t>
+          <t>(1294, 1295)</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>0.0002472459722196014</v>
+        <v>0.000282740950658911</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>(1372, 1373)</t>
+          <t>(1295, 1297)</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>0.0002474621384117424</v>
+        <v>0.0002849760555679711</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>(1373, 1375)</t>
+          <t>(1297, 1298)</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>0.000247720836190785</v>
+        <v>0.00028145769475008</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>(1375, 1376)</t>
+          <t>(1298, 1300)</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>0.0002452605460926977</v>
+        <v>0.0002835916407706208</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>(1376, 1378)</t>
+          <t>(1300, 1301)</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>0.0002456158415397841</v>
+        <v>0.0002799959399650405</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>(1378, 1379)</t>
+          <t>(1301, 1303)</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>0.0002457500764422948</v>
+        <v>0.0002816458711341593</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>(1379, 1381)</t>
+          <t>(1303, 1304)</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>0.0002425702944079762</v>
+        <v>0.0002790053204370698</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>(1381, 1382)</t>
+          <t>(1304, 1306)</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>0.0002450732284394779</v>
+        <v>0.0002792257808983965</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>(1382, 1384)</t>
+          <t>(1306, 1307)</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>0.000243241583750977</v>
+        <v>0.0002784435846824287</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>(1384, 1385)</t>
+          <t>(1307, 1309)</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>0.000241832133202487</v>
+        <v>0.0002762901532051374</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>(1385, 1387)</t>
+          <t>(1309, 1310)</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>0.0002425097727275814</v>
+        <v>0.0002775436233478623</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>(1387, 1388)</t>
+          <t>(1310, 1312)</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>0.0002400150410217174</v>
+        <v>0.0002758153544600269</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>(1388, 1390)</t>
+          <t>(1312, 1313)</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>0.0002418440448016034</v>
+        <v>0.0002742101617268392</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>(1390, 1391)</t>
+          <t>(1313, 1315)</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>0.0002386160444838575</v>
+        <v>0.0002748967023022766</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>(1391, 1393)</t>
+          <t>(1315, 1316)</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>0.0002407817375680048</v>
+        <v>0.0002742644370941143</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>(1393, 1394)</t>
+          <t>(1316, 1318)</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>0.0002372697479192591</v>
+        <v>0.0002724235766236675</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>(1394, 1396)</t>
+          <t>(1318, 1319)</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>0.0002396660212680658</v>
+        <v>0.0002714690325542306</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>(1396, 1397)</t>
+          <t>(1319, 1321)</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>0.0002362510413046644</v>
+        <v>0.0002713713979619724</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>(1397, 1399)</t>
+          <t>(1321, 1322)</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>0.0002385411966247149</v>
+        <v>0.0002715925643584513</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>(1399, 1400)</t>
+          <t>(1322, 1324)</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>0.0002353635583051264</v>
+        <v>0.0002700465353227135</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>(1400, 1402)</t>
+          <t>(1324, 1325)</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>0.0002365811495865381</v>
+        <v>0.000268863334273943</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>(1402, 1403)</t>
+          <t>(1325, 1327)</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>0.0002349653010140855</v>
+        <v>0.0002679281785823227</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>(1403, 1405)</t>
+          <t>(1327, 1328)</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>0.0002332223733738154</v>
+        <v>0.0002672744299389796</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>(1405, 1406)</t>
+          <t>(1328, 1330)</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>0.0002356984563270465</v>
+        <v>0.0002666184704780593</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>(1406, 1408)</t>
+          <t>(1330, 1331)</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>0.0002325062881526159</v>
+        <v>0.0002676124874305621</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>(1408, 1409)</t>
+          <t>(1331, 1333)</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>0.0002337479487613016</v>
+        <v>0.0002660017546797072</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>(1409, 1411)</t>
+          <t>(1333, 1334)</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>0.0002322857059736567</v>
+        <v>0.000265036029367769</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>(1411, 1412)</t>
+          <t>(1334, 1336)</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>0.000230635345290503</v>
+        <v>0.0002642178656233226</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>(1412, 1414)</t>
+          <t>(1336, 1337)</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>0.0002325346227655831</v>
+        <v>0.0002634784496434656</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>(1414, 1415)</t>
+          <t>(1337, 1339)</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>0.0002302830706332715</v>
+        <v>0.0002626110812979928</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>(1415, 1417)</t>
+          <t>(1339, 1340)</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>0.0002292535195410553</v>
+        <v>0.0002622768384800127</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>(1417, 1418)</t>
+          <t>(1340, 1342)</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>0.0002302928712317464</v>
+        <v>0.0002613783813596123</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>(1418, 1420)</t>
+          <t>(1342, 1343)</t>
         </is>
       </c>
       <c r="B230" t="n">
-        <v>0.0002290596040015309</v>
+        <v>0.0002606097105412926</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>(1420, 1421)</t>
+          <t>(1343, 1345)</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>0.0002276367530510638</v>
+        <v>0.0002602191878760823</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>(1421, 1423)</t>
+          <t>(1345, 1346)</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>0.0002265126725461366</v>
+        <v>0.0002591611046317329</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>(1423, 1424)</t>
+          <t>(1346, 1348)</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>0.0002290584353353179</v>
+        <v>0.0002587180494888782</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>(1424, 1426)</t>
+          <t>(1348, 1349)</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>0.0002267920632393665</v>
+        <v>0.0002574277106658812</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>(1426, 1427)</t>
+          <t>(1349, 1351)</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>0.0002255073029373931</v>
+        <v>0.0002558172135361199</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>(1427, 1429)</t>
+          <t>(1351, 1352)</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>0.0002245556725345095</v>
+        <v>0.0002573834153503957</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>(1429, 1430)</t>
+          <t>(1352, 1354)</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>0.0002260534205835144</v>
+        <v>0.0002562976600150076</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>(1430, 1432)</t>
+          <t>(1354, 1355)</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>0.0002247919663762425</v>
+        <v>0.0002556912701498647</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>(1432, 1433)</t>
+          <t>(1355, 1357)</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>0.0002238301005177126</v>
+        <v>0.0002550336907490496</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>(1433, 1435)</t>
+          <t>(1357, 1358)</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>0.0002229312878966366</v>
+        <v>0.0002539901489745302</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>(1435, 1436)</t>
+          <t>(1358, 1360)</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>0.0002223439897349218</v>
+        <v>0.0002527331256927615</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>(1436, 1438)</t>
+          <t>(1360, 1361)</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>0.0002215762277277668</v>
+        <v>0.000251683361543752</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>(1438, 1439)</t>
+          <t>(1361, 1363)</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>0.0002230171222016545</v>
+        <v>0.0002529852943282183</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>(1439, 1441)</t>
+          <t>(1363, 1364)</t>
         </is>
       </c>
       <c r="B244" t="n">
-        <v>0.0002216419289935003</v>
+        <v>0.0002517092130056642</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>(1441, 1442)</t>
+          <t>(1364, 1366)</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>0.0002206340037949491</v>
+        <v>0.0002506756512885408</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>(1442, 1444)</t>
+          <t>(1366, 1367)</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>0.0002202961886690937</v>
+        <v>0.0002485289673657206</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>(1444, 1445)</t>
+          <t>(1367, 1369)</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>0.0002192940768653772</v>
+        <v>0.0002504564489596088</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>(1445, 1447)</t>
+          <t>(1369, 1370)</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>0.0002189085400307964</v>
+        <v>0.0002492490507320743</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>(1447, 1448)</t>
+          <t>(1370, 1372)</t>
         </is>
       </c>
       <c r="B249" t="n">
-        <v>0.0002183689552309197</v>
+        <v>0.0002472459722196014</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>(1448, 1450)</t>
+          <t>(1372, 1373)</t>
         </is>
       </c>
       <c r="B250" t="n">
-        <v>0.0002178058022018629</v>
+        <v>0.0002474621384117424</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>(1450, 1451)</t>
+          <t>(1373, 1375)</t>
         </is>
       </c>
       <c r="B251" t="n">
-        <v>0.0002172361951988718</v>
+        <v>0.000247720836190785</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>(1451, 1453)</t>
+          <t>(1375, 1376)</t>
         </is>
       </c>
       <c r="B252" t="n">
-        <v>0.0002167985118712047</v>
+        <v>0.0002452605460926977</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>(1453, 1454)</t>
+          <t>(1376, 1378)</t>
         </is>
       </c>
       <c r="B253" t="n">
-        <v>0.000216413962481407</v>
+        <v>0.0002456158415397841</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>(1454, 1456)</t>
+          <t>(1378, 1379)</t>
         </is>
       </c>
       <c r="B254" t="n">
-        <v>0.0002158181580362194</v>
+        <v>0.0002457500764422948</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>(1456, 1457)</t>
+          <t>(1379, 1381)</t>
         </is>
       </c>
       <c r="B255" t="n">
-        <v>0.0002155110628572965</v>
+        <v>0.0002425702944079762</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>(1457, 1459)</t>
+          <t>(1381, 1382)</t>
         </is>
       </c>
       <c r="B256" t="n">
-        <v>0.000215024344861017</v>
+        <v>0.0002450732284394779</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>(1459, 1460)</t>
+          <t>(1382, 1384)</t>
         </is>
       </c>
       <c r="B257" t="n">
-        <v>0.0002144235846212279</v>
+        <v>0.000243241583750977</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>(1460, 1462)</t>
+          <t>(1384, 1385)</t>
         </is>
       </c>
       <c r="B258" t="n">
-        <v>0.0002139052021222153</v>
+        <v>0.000241832133202487</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>(1462, 1463)</t>
+          <t>(1385, 1387)</t>
         </is>
       </c>
       <c r="B259" t="n">
-        <v>0.0002134901187003775</v>
+        <v>0.0002425097727275814</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>(1463, 1465)</t>
+          <t>(1387, 1388)</t>
         </is>
       </c>
       <c r="B260" t="n">
-        <v>0.0002131776791126946</v>
+        <v>0.0002400150410217174</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>(1465, 1466)</t>
+          <t>(1388, 1390)</t>
         </is>
       </c>
       <c r="B261" t="n">
-        <v>0.0002125262436554608</v>
+        <v>0.0002418440448016034</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>(1466, 1468)</t>
+          <t>(1390, 1391)</t>
         </is>
       </c>
       <c r="B262" t="n">
-        <v>0.0002121349979985827</v>
+        <v>0.0002386160444838575</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>(1468, 1469)</t>
+          <t>(1391, 1393)</t>
         </is>
       </c>
       <c r="B263" t="n">
-        <v>0.0002116674349732679</v>
+        <v>0.0002407817375680048</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>(1469, 1471)</t>
+          <t>(1393, 1394)</t>
         </is>
       </c>
       <c r="B264" t="n">
-        <v>0.0002112433119010877</v>
+        <v>0.0002372697479192591</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>(1471, 1472)</t>
+          <t>(1394, 1396)</t>
         </is>
       </c>
       <c r="B265" t="n">
-        <v>0.0002104052320455977</v>
+        <v>0.0002396660212680658</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>(1472, 1474)</t>
+          <t>(1396, 1397)</t>
         </is>
       </c>
       <c r="B266" t="n">
-        <v>0.0002097006868493129</v>
+        <v>0.0002362510413046644</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>(1474, 1475)</t>
+          <t>(1397, 1399)</t>
         </is>
       </c>
       <c r="B267" t="n">
-        <v>0.0002092176465599283</v>
+        <v>0.0002385411966247149</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>(1475, 1477)</t>
+          <t>(1399, 1400)</t>
         </is>
       </c>
       <c r="B268" t="n">
-        <v>0.0002070468402257387</v>
+        <v>0.0002353635583051264</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>(1477, 1478)</t>
+          <t>(1400, 1402)</t>
         </is>
       </c>
       <c r="B269" t="n">
-        <v>0.0002091984751946459</v>
+        <v>0.0002365811495865381</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>(1478, 1480)</t>
+          <t>(1402, 1403)</t>
         </is>
       </c>
       <c r="B270" t="n">
-        <v>0.0002084650186323279</v>
+        <v>0.0002349653010140855</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>(1480, 1481)</t>
+          <t>(1403, 1405)</t>
         </is>
       </c>
       <c r="B271" t="n">
-        <v>0.0002080382676140566</v>
+        <v>0.0002332223733738154</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>(1481, 1483)</t>
+          <t>(1405, 1406)</t>
         </is>
       </c>
       <c r="B272" t="n">
-        <v>0.0002072966114030969</v>
+        <v>0.0002356984563270465</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>(1483, 1484)</t>
+          <t>(1406, 1408)</t>
         </is>
       </c>
       <c r="B273" t="n">
-        <v>0.0002064503007115131</v>
+        <v>0.0002325062881526159</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>(1484, 1486)</t>
+          <t>(1408, 1409)</t>
         </is>
       </c>
       <c r="B274" t="n">
-        <v>0.0002048324682855253</v>
+        <v>0.0002337479487613016</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>(1486, 1487)</t>
+          <t>(1409, 1411)</t>
         </is>
       </c>
       <c r="B275" t="n">
-        <v>0.0002053601114087189</v>
+        <v>0.0002322857059736567</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>(1487, 1489)</t>
+          <t>(1411, 1412)</t>
         </is>
       </c>
       <c r="B276" t="n">
-        <v>0.000205840511951387</v>
+        <v>0.000230635345290503</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>(1489, 1490)</t>
+          <t>(1412, 1414)</t>
         </is>
       </c>
       <c r="B277" t="n">
-        <v>0.0002051709002433793</v>
+        <v>0.0002325346227655831</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>(1490, 1492)</t>
+          <t>(1414, 1415)</t>
         </is>
       </c>
       <c r="B278" t="n">
-        <v>0.0002041343566800748</v>
+        <v>0.0002302830706332715</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>(1492, 1493)</t>
+          <t>(1415, 1417)</t>
         </is>
       </c>
       <c r="B279" t="n">
-        <v>0.000201741747905395</v>
+        <v>0.0002292535195410553</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>(1493, 1495)</t>
+          <t>(1417, 1418)</t>
         </is>
       </c>
       <c r="B280" t="n">
-        <v>0.0002042663976499205</v>
+        <v>0.0002302928712317464</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>(1495, 1496)</t>
+          <t>(1418, 1420)</t>
         </is>
       </c>
       <c r="B281" t="n">
-        <v>0.0002033881440778602</v>
+        <v>0.0002290596040015309</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>(1496, 1498)</t>
+          <t>(1420, 1421)</t>
         </is>
       </c>
       <c r="B282" t="n">
-        <v>0.0002022648824904941</v>
+        <v>0.0002276367530510638</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>(1498, 1499)</t>
+          <t>(1421, 1423)</t>
         </is>
       </c>
       <c r="B283" t="n">
-        <v>0.0002000229776100411</v>
+        <v>0.0002265126725461366</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>(1499, 1501)</t>
+          <t>(1423, 1424)</t>
         </is>
       </c>
       <c r="B284" t="n">
-        <v>0.0002025475301235838</v>
+        <v>0.0002290584353353179</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>(1501, 1502)</t>
+          <t>(1424, 1426)</t>
         </is>
       </c>
       <c r="B285" t="n">
-        <v>0.0002015052331162046</v>
+        <v>0.0002267920632393665</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>(1502, 1504)</t>
+          <t>(1426, 1427)</t>
         </is>
       </c>
       <c r="B286" t="n">
-        <v>0.0001994529891481489</v>
+        <v>0.0002255073029373931</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>(1504, 1505)</t>
+          <t>(1427, 1429)</t>
         </is>
       </c>
       <c r="B287" t="n">
-        <v>0.0001999248656898122</v>
+        <v>0.0002245556725345095</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>(1505, 1507)</t>
+          <t>(1429, 1430)</t>
         </is>
       </c>
       <c r="B288" t="n">
-        <v>0.0002003723263155989</v>
+        <v>0.0002260534205835144</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>(1507, 1508)</t>
+          <t>(1430, 1432)</t>
         </is>
       </c>
       <c r="B289" t="n">
-        <v>0.0001986612845487328</v>
+        <v>0.0002247919663762425</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>(1508, 1510)</t>
+          <t>(1432, 1433)</t>
         </is>
       </c>
       <c r="B290" t="n">
-        <v>0.0001979336195825737</v>
+        <v>0.0002238301005177126</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>(1510, 1511)</t>
+          <t>(1433, 1435)</t>
         </is>
       </c>
       <c r="B291" t="n">
-        <v>0.0001991278441276793</v>
+        <v>0.0002229312878966366</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>(1511, 1513)</t>
+          <t>(1435, 1436)</t>
         </is>
       </c>
       <c r="B292" t="n">
-        <v>0.0001969054302366503</v>
+        <v>0.0002223439897349218</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>(1513, 1514)</t>
+          <t>(1436, 1438)</t>
         </is>
       </c>
       <c r="B293" t="n">
-        <v>0.0001972435092315799</v>
+        <v>0.0002215762277277668</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>(1514, 1516)</t>
+          <t>(1438, 1439)</t>
         </is>
       </c>
       <c r="B294" t="n">
-        <v>0.0001974806112474352</v>
+        <v>0.0002230171222016545</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>(1516, 1517)</t>
+          <t>(1439, 1441)</t>
         </is>
       </c>
       <c r="B295" t="n">
-        <v>0.0001945522332152109</v>
+        <v>0.0002216419289935003</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>(1517, 1519)</t>
+          <t>(1441, 1442)</t>
         </is>
       </c>
       <c r="B296" t="n">
-        <v>0.0001972510147024954</v>
+        <v>0.0002206340037949491</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>(1519, 1520)</t>
+          <t>(1442, 1444)</t>
         </is>
       </c>
       <c r="B297" t="n">
-        <v>0.0001956607289193333</v>
+        <v>0.0002202961886690937</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>(1520, 1522)</t>
+          <t>(1444, 1445)</t>
         </is>
       </c>
       <c r="B298" t="n">
-        <v>0.0001942040640411582</v>
+        <v>0.0002192940768653772</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>(1522, 1523)</t>
+          <t>(1445, 1447)</t>
         </is>
       </c>
       <c r="B299" t="n">
-        <v>0.000195380758644067</v>
+        <v>0.0002189085400307964</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>(1523, 1525)</t>
+          <t>(1447, 1448)</t>
         </is>
       </c>
       <c r="B300" t="n">
-        <v>0.0001924744678142715</v>
+        <v>0.0002183689552309197</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>(1525, 1526)</t>
+          <t>(1448, 1450)</t>
         </is>
       </c>
       <c r="B301" t="n">
-        <v>0.0001952970831634694</v>
+        <v>0.0002178058022018629</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>(1526, 1528)</t>
+          <t>(1450, 1451)</t>
         </is>
       </c>
       <c r="B302" t="n">
-        <v>0.0001921066865045869</v>
+        <v>0.0002172361951988718</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>(1528, 1529)</t>
+          <t>(1451, 1453)</t>
         </is>
       </c>
       <c r="B303" t="n">
-        <v>0.0001935920773169819</v>
+        <v>0.0002167985118712047</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>(1529, 1531)</t>
+          <t>(1453, 1454)</t>
         </is>
       </c>
       <c r="B304" t="n">
-        <v>0.0001924822283811178</v>
+        <v>0.000216413962481407</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>(1531, 1532)</t>
+          <t>(1454, 1456)</t>
         </is>
       </c>
       <c r="B305" t="n">
-        <v>0.0001916707932368546</v>
+        <v>0.0002158181580362194</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>(1532, 1534)</t>
+          <t>(1456, 1457)</t>
         </is>
       </c>
       <c r="B306" t="n">
-        <v>0.0001920020765324306</v>
+        <v>0.0002155110628572965</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>(1534, 1535)</t>
+          <t>(1457, 1459)</t>
         </is>
       </c>
       <c r="B307" t="n">
-        <v>0.0001903576540526072</v>
+        <v>0.000215024344861017</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>(1535, 1537)</t>
+          <t>(1459, 1460)</t>
         </is>
       </c>
       <c r="B308" t="n">
-        <v>0.0001914910580791906</v>
+        <v>0.0002144235846212279</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>(1537, 1538)</t>
+          <t>(1460, 1462)</t>
         </is>
       </c>
       <c r="B309" t="n">
-        <v>0.0001895251358923197</v>
+        <v>0.0002139052021222153</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>(1538, 1540)</t>
+          <t>(1462, 1463)</t>
         </is>
       </c>
       <c r="B310" t="n">
-        <v>0.0001905289180877809</v>
+        <v>0.0002134901187003775</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>(1540, 1541)</t>
+          <t>(1463, 1465)</t>
         </is>
       </c>
       <c r="B311" t="n">
-        <v>0.0001887228590199113</v>
+        <v>0.0002131776791126946</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>(1541, 1543)</t>
+          <t>(1465, 1466)</t>
         </is>
       </c>
       <c r="B312" t="n">
-        <v>0.0001892960289363474</v>
+        <v>0.0002125262436554608</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>(1543, 1544)</t>
+          <t>(1466, 1468)</t>
         </is>
       </c>
       <c r="B313" t="n">
-        <v>0.000188497560534915</v>
+        <v>0.0002121349979985827</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>(1544, 1546)</t>
+          <t>(1468, 1469)</t>
         </is>
       </c>
       <c r="B314" t="n">
-        <v>0.0001876055349058159</v>
+        <v>0.0002116674349732679</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>(1546, 1547)</t>
+          <t>(1469, 1471)</t>
         </is>
       </c>
       <c r="B315" t="n">
-        <v>0.000188544679027792</v>
+        <v>0.0002112433119010877</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>(1547, 1549)</t>
+          <t>(1471, 1472)</t>
         </is>
       </c>
       <c r="B316" t="n">
-        <v>0.0001855594302954321</v>
+        <v>0.0002104052320455977</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>(1549, 1550)</t>
+          <t>(1472, 1474)</t>
         </is>
       </c>
       <c r="B317" t="n">
-        <v>0.000188863133874065</v>
+        <v>0.0002097006868493129</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>(1550, 1552)</t>
+          <t>(1474, 1475)</t>
         </is>
       </c>
       <c r="B318" t="n">
-        <v>0.0001850728885866443</v>
+        <v>0.0002092176465599283</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>(1552, 1553)</t>
+          <t>(1475, 1477)</t>
         </is>
       </c>
       <c r="B319" t="n">
-        <v>0.0001873537372464747</v>
+        <v>0.0002070468402257387</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>(1553, 1555)</t>
+          <t>(1477, 1478)</t>
         </is>
       </c>
       <c r="B320" t="n">
-        <v>0.0001852159116201435</v>
+        <v>0.0002091984751946459</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>(1555, 1556)</t>
+          <t>(1478, 1480)</t>
         </is>
       </c>
       <c r="B321" t="n">
-        <v>0.0001844514679172314</v>
+        <v>0.0002084650186323279</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>(1556, 1558)</t>
+          <t>(1480, 1481)</t>
         </is>
       </c>
       <c r="B322" t="n">
-        <v>0.0001861484717079989</v>
+        <v>0.0002080382676140566</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>(1558, 1559)</t>
+          <t>(1481, 1483)</t>
         </is>
       </c>
       <c r="B323" t="n">
-        <v>0.0001831786950992791</v>
+        <v>0.0002072966114030969</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>(1559, 1561)</t>
+          <t>(1483, 1484)</t>
         </is>
       </c>
       <c r="B324" t="n">
-        <v>0.0001850924230727271</v>
+        <v>0.0002064503007115131</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>(1561, 1562)</t>
+          <t>(1484, 1486)</t>
         </is>
       </c>
       <c r="B325" t="n">
-        <v>0.0001836180902619135</v>
+        <v>0.0002048324682855253</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>(1562, 1564)</t>
+          <t>(1486, 1487)</t>
         </is>
       </c>
       <c r="B326" t="n">
-        <v>0.0001816450695187427</v>
+        <v>0.0002053601114087189</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>(1564, 1565)</t>
+          <t>(1487, 1489)</t>
         </is>
       </c>
       <c r="B327" t="n">
-        <v>0.000184627943786926</v>
+        <v>0.000205840511951387</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>(1565, 1567)</t>
+          <t>(1489, 1490)</t>
         </is>
       </c>
       <c r="B328" t="n">
-        <v>0.0001820013776504318</v>
+        <v>0.0002051709002433793</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>(1567, 1568)</t>
+          <t>(1490, 1492)</t>
         </is>
       </c>
       <c r="B329" t="n">
-        <v>0.000180506714944833</v>
+        <v>0.0002041343566800748</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>(1568, 1570)</t>
+          <t>(1492, 1493)</t>
         </is>
       </c>
       <c r="B330" t="n">
-        <v>0.0001837874051467214</v>
+        <v>0.000201741747905395</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>(1570, 1571)</t>
+          <t>(1493, 1495)</t>
         </is>
       </c>
       <c r="B331" t="n">
-        <v>0.0001806514315268021</v>
+        <v>0.0002042663976499205</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>(1571, 1573)</t>
+          <t>(1495, 1496)</t>
         </is>
       </c>
       <c r="B332" t="n">
-        <v>0.0001794238381273209</v>
+        <v>0.0002033881440778602</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>(1573, 1574)</t>
+          <t>(1496, 1498)</t>
         </is>
       </c>
       <c r="B333" t="n">
-        <v>0.0001823191100083369</v>
+        <v>0.0002022648824904941</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>(1574, 1576)</t>
+          <t>(1498, 1499)</t>
         </is>
       </c>
       <c r="B334" t="n">
-        <v>0.0001799907881612294</v>
+        <v>0.0002000229776100411</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>(1576, 1577)</t>
+          <t>(1499, 1501)</t>
         </is>
       </c>
       <c r="B335" t="n">
-        <v>0.0001785749630066883</v>
+        <v>0.0002025475301235838</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>(1577, 1579)</t>
+          <t>(1501, 1502)</t>
         </is>
       </c>
       <c r="B336" t="n">
-        <v>0.00017976312045493</v>
+        <v>0.0002015052331162046</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>(1579, 1580)</t>
+          <t>(1502, 1504)</t>
         </is>
       </c>
       <c r="B337" t="n">
-        <v>0.0001798337658300892</v>
+        <v>0.0001994529891481489</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>(1580, 1582)</t>
+          <t>(1504, 1505)</t>
         </is>
       </c>
       <c r="B338" t="n">
-        <v>0.000177779504822692</v>
+        <v>0.0001999248656898122</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>(1582, 1583)</t>
+          <t>(1505, 1507)</t>
         </is>
       </c>
       <c r="B339" t="n">
-        <v>0.0001769710510042856</v>
+        <v>0.0002003723263155989</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>(1583, 1585)</t>
+          <t>(1507, 1508)</t>
         </is>
       </c>
       <c r="B340" t="n">
-        <v>0.0001793644460224442</v>
+        <v>0.0001986612845487328</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>(1585, 1586)</t>
+          <t>(1508, 1510)</t>
         </is>
       </c>
       <c r="B341" t="n">
-        <v>0.0001774907667098416</v>
+        <v>0.0001979336195825737</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>(1586, 1588)</t>
+          <t>(1510, 1511)</t>
         </is>
       </c>
       <c r="B342" t="n">
-        <v>0.000176442796592633</v>
+        <v>0.0001991278441276793</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>(1588, 1589)</t>
+          <t>(1511, 1513)</t>
         </is>
       </c>
       <c r="B343" t="n">
-        <v>0.0001757929215974545</v>
+        <v>0.0001969054302366503</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>(1589, 1591)</t>
+          <t>(1513, 1514)</t>
         </is>
       </c>
       <c r="B344" t="n">
-        <v>0.0001770381706854837</v>
+        <v>0.0001972435092315799</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>(1591, 1592)</t>
+          <t>(1514, 1516)</t>
         </is>
       </c>
       <c r="B345" t="n">
-        <v>0.0001766052362775934</v>
+        <v>0.0001974806112474352</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>(1592, 1594)</t>
+          <t>(1516, 1517)</t>
         </is>
       </c>
       <c r="B346" t="n">
-        <v>0.0001752069848784507</v>
+        <v>0.0001945522332152109</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>(1594, 1595)</t>
+          <t>(1517, 1519)</t>
         </is>
       </c>
       <c r="B347" t="n">
-        <v>0.0001744555965400402</v>
+        <v>0.0001972510147024954</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>(1595, 1597)</t>
+          <t>(1519, 1520)</t>
         </is>
       </c>
       <c r="B348" t="n">
-        <v>0.0001736775459092962</v>
+        <v>0.0001956607289193333</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>(1597, 1598)</t>
+          <t>(1520, 1522)</t>
         </is>
       </c>
       <c r="B349" t="n">
-        <v>0.0001756649557204743</v>
+        <v>0.0001942040640411582</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>(1598, 1600)</t>
+          <t>(1522, 1523)</t>
         </is>
       </c>
       <c r="B350" t="n">
-        <v>0.0001748017406659003</v>
+        <v>0.000195380758644067</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>(1600, 1601)</t>
+          <t>(1523, 1525)</t>
         </is>
       </c>
       <c r="B351" t="n">
-        <v>0.0001733010881319361</v>
+        <v>0.0001924744678142715</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>(1601, 1603)</t>
+          <t>(1525, 1526)</t>
         </is>
       </c>
       <c r="B352" t="n">
-        <v>0.0001729434531236018</v>
+        <v>0.0001952970831634694</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>(1603, 1604)</t>
+          <t>(1526, 1528)</t>
         </is>
       </c>
       <c r="B353" t="n">
-        <v>0.0001721924658058197</v>
+        <v>0.0001921066865045869</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>(1604, 1606)</t>
+          <t>(1528, 1529)</t>
         </is>
       </c>
       <c r="B354" t="n">
-        <v>0.0001717606357079701</v>
+        <v>0.0001935920773169819</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>(1606, 1607)</t>
+          <t>(1529, 1531)</t>
         </is>
       </c>
       <c r="B355" t="n">
-        <v>0.0001733727832372884</v>
+        <v>0.0001924822283811178</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>(1607, 1609)</t>
+          <t>(1531, 1532)</t>
         </is>
       </c>
       <c r="B356" t="n">
-        <v>0.0001724548284689252</v>
+        <v>0.0001916707932368546</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>(1609, 1610)</t>
+          <t>(1532, 1534)</t>
         </is>
       </c>
       <c r="B357" t="n">
-        <v>0.0001714340393364771</v>
+        <v>0.0001920020765324306</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>(1610, 1612)</t>
+          <t>(1534, 1535)</t>
         </is>
       </c>
       <c r="B358" t="n">
-        <v>0.0001708394232957366</v>
+        <v>0.0001903576540526072</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>(1612, 1613)</t>
+          <t>(1535, 1537)</t>
         </is>
       </c>
       <c r="B359" t="n">
-        <v>0.0001706360768421526</v>
+        <v>0.0001914910580791906</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>(1613, 1615)</t>
+          <t>(1537, 1538)</t>
         </is>
       </c>
       <c r="B360" t="n">
-        <v>0.0001699153889275138</v>
+        <v>0.0001895251358923197</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>(1615, 1616)</t>
+          <t>(1538, 1540)</t>
         </is>
       </c>
       <c r="B361" t="n">
-        <v>0.0001695356802986854</v>
+        <v>0.0001905289180877809</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>(1616, 1618)</t>
+          <t>(1540, 1541)</t>
         </is>
       </c>
       <c r="B362" t="n">
-        <v>0.00016923086376685</v>
+        <v>0.0001887228590199113</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>(1618, 1619)</t>
+          <t>(1541, 1543)</t>
         </is>
       </c>
       <c r="B363" t="n">
-        <v>0.0001687999233945973</v>
+        <v>0.0001892960289363474</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>(1619, 1621)</t>
+          <t>(1543, 1544)</t>
         </is>
       </c>
       <c r="B364" t="n">
-        <v>0.0001703605203545621</v>
+        <v>0.000188497560534915</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>(1621, 1622)</t>
+          <t>(1544, 1546)</t>
         </is>
       </c>
       <c r="B365" t="n">
-        <v>0.0001690885394922059</v>
+        <v>0.0001876055349058159</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>(1622, 1624)</t>
+          <t>(1546, 1547)</t>
         </is>
       </c>
       <c r="B366" t="n">
-        <v>0.0001685434078068685</v>
+        <v>0.000188544679027792</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>(1624, 1625)</t>
+          <t>(1547, 1549)</t>
         </is>
       </c>
       <c r="B367" t="n">
-        <v>0.0001678447206441982</v>
+        <v>0.0001855594302954321</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>(1625, 1627)</t>
+          <t>(1549, 1550)</t>
         </is>
       </c>
       <c r="B368" t="n">
-        <v>0.0001675104000225807</v>
+        <v>0.000188863133874065</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>(1627, 1628)</t>
+          <t>(1550, 1552)</t>
         </is>
       </c>
       <c r="B369" t="n">
-        <v>0.0001671816451468608</v>
+        <v>0.0001850728885866443</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>(1628, 1630)</t>
+          <t>(1552, 1553)</t>
         </is>
       </c>
       <c r="B370" t="n">
-        <v>0.0001667733525945991</v>
+        <v>0.0001873537372464747</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>(1630, 1631)</t>
+          <t>(1553, 1555)</t>
         </is>
       </c>
       <c r="B371" t="n">
-        <v>0.0001663655543220675</v>
+        <v>0.0001852159116201435</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>(1631, 1633)</t>
+          <t>(1555, 1556)</t>
         </is>
       </c>
       <c r="B372" t="n">
-        <v>0.0001660073008574041</v>
+        <v>0.0001844514679172314</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>(1633, 1634)</t>
+          <t>(1556, 1558)</t>
         </is>
       </c>
       <c r="B373" t="n">
-        <v>0.0001659176171251758</v>
+        <v>0.0001861484717079989</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>(1634, 1636)</t>
+          <t>(1558, 1559)</t>
         </is>
       </c>
       <c r="B374" t="n">
-        <v>0.0001653754958837623</v>
+        <v>0.0001831786950992791</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>(1636, 1637)</t>
+          <t>(1559, 1561)</t>
         </is>
       </c>
       <c r="B375" t="n">
-        <v>0.0001651248860311645</v>
+        <v>0.0001850924230727271</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>(1637, 1639)</t>
+          <t>(1561, 1562)</t>
         </is>
       </c>
       <c r="B376" t="n">
-        <v>0.0001646359156567628</v>
+        <v>0.0001836180902619135</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>(1639, 1640)</t>
+          <t>(1562, 1564)</t>
         </is>
       </c>
       <c r="B377" t="n">
-        <v>0.0001644404328039518</v>
+        <v>0.0001816450695187427</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>(1640, 1642)</t>
+          <t>(1564, 1565)</t>
         </is>
       </c>
       <c r="B378" t="n">
-        <v>0.000164343302718073</v>
+        <v>0.000184627943786926</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>(1642, 1643)</t>
+          <t>(1565, 1567)</t>
         </is>
       </c>
       <c r="B379" t="n">
-        <v>0.0001637534892845887</v>
+        <v>0.0001820013776504318</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>(1643, 1645)</t>
+          <t>(1567, 1568)</t>
         </is>
       </c>
       <c r="B380" t="n">
-        <v>0.0001633132481927607</v>
+        <v>0.000180506714944833</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>(1645, 1646)</t>
+          <t>(1568, 1570)</t>
         </is>
       </c>
       <c r="B381" t="n">
-        <v>0.00016322159547094</v>
+        <v>0.0001837874051467214</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>(1646, 1648)</t>
+          <t>(1570, 1571)</t>
         </is>
       </c>
       <c r="B382" t="n">
-        <v>0.0001628375422121047</v>
+        <v>0.0001806514315268021</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>(1648, 1649)</t>
+          <t>(1571, 1573)</t>
         </is>
       </c>
       <c r="B383" t="n">
-        <v>0.0001622641699820193</v>
+        <v>0.0001794238381273209</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>(1649, 1651)</t>
+          <t>(1573, 1574)</t>
         </is>
       </c>
       <c r="B384" t="n">
-        <v>0.0001622786016389114</v>
+        <v>0.0001823191100083369</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>(1651, 1652)</t>
+          <t>(1574, 1576)</t>
         </is>
       </c>
       <c r="B385" t="n">
-        <v>0.0001617077134594813</v>
+        <v>0.0001799907881612294</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>(1652, 1654)</t>
+          <t>(1576, 1577)</t>
         </is>
       </c>
       <c r="B386" t="n">
-        <v>0.0001613458095904403</v>
+        <v>0.0001785749630066883</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>(1654, 1655)</t>
+          <t>(1577, 1579)</t>
         </is>
       </c>
       <c r="B387" t="n">
-        <v>0.0001610916105501916</v>
+        <v>0.00017976312045493</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>(1655, 1657)</t>
+          <t>(1579, 1580)</t>
         </is>
       </c>
       <c r="B388" t="n">
-        <v>0.0001604382796684719</v>
+        <v>0.0001798337658300892</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>(1657, 1658)</t>
+          <t>(1580, 1582)</t>
         </is>
       </c>
       <c r="B389" t="n">
-        <v>0.0001591607797117573</v>
+        <v>0.000177779504822692</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>(1658, 1660)</t>
+          <t>(1582, 1583)</t>
         </is>
       </c>
       <c r="B390" t="n">
-        <v>0.0001600890340185323</v>
+        <v>0.0001769710510042856</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>(1660, 1661)</t>
+          <t>(1583, 1585)</t>
         </is>
       </c>
       <c r="B391" t="n">
-        <v>0.0001599826235211741</v>
+        <v>0.0001793644460224442</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>(1661, 1663)</t>
+          <t>(1585, 1586)</t>
         </is>
       </c>
       <c r="B392" t="n">
-        <v>0.000159915617432189</v>
+        <v>0.0001774907667098416</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>(1663, 1664)</t>
+          <t>(1586, 1588)</t>
         </is>
       </c>
       <c r="B393" t="n">
-        <v>0.0001425798202869425</v>
+        <v>0.000176442796592633</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>(1664, 1666)</t>
+          <t>(1588, 1589)</t>
         </is>
       </c>
       <c r="B394" t="n">
-        <v>0.0001141725906412106</v>
+        <v>0.0001757929215974545</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>(1666, 1667)</t>
+          <t>(1589, 1591)</t>
         </is>
       </c>
       <c r="B395" t="n">
-        <v>9.846518461378658e-05</v>
+        <v>0.0001770381706854837</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>(1667, 1669)</t>
+          <t>(1591, 1592)</t>
         </is>
       </c>
       <c r="B396" t="n">
-        <v>8.609984534136195e-05</v>
+        <v>0.0001766052362775934</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>(1669, 1670)</t>
+          <t>(1592, 1594)</t>
         </is>
       </c>
       <c r="B397" t="n">
-        <v>7.537847708341254e-05</v>
+        <v>0.0001752069848784507</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>(1670, 1672)</t>
+          <t>(1594, 1595)</t>
         </is>
       </c>
       <c r="B398" t="n">
-        <v>6.617312453781362e-05</v>
+        <v>0.0001744555965400402</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>(1672, 1673)</t>
+          <t>(1595, 1597)</t>
         </is>
       </c>
       <c r="B399" t="n">
-        <v>5.763721502982127e-05</v>
+        <v>0.0001736775459092962</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>(1673, 1675)</t>
+          <t>(1597, 1598)</t>
         </is>
       </c>
       <c r="B400" t="n">
-        <v>4.983638958698573e-05</v>
+        <v>0.0001756649557204743</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>(1675, 1676)</t>
+          <t>(1598, 1600)</t>
         </is>
       </c>
       <c r="B401" t="n">
-        <v>4.269106292174919e-05</v>
+        <v>0.0001748017406659003</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>(1676, 1678)</t>
+          <t>(1600, 1601)</t>
         </is>
       </c>
       <c r="B402" t="n">
-        <v>3.598660861792859e-05</v>
+        <v>0.0001733010881319361</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>(1678, 1679)</t>
+          <t>(1601, 1603)</t>
         </is>
       </c>
       <c r="B403" t="n">
-        <v>2.953816240446095e-05</v>
+        <v>0.0001729434531236018</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>(1679, 1681)</t>
+          <t>(1603, 1604)</t>
         </is>
       </c>
       <c r="B404" t="n">
-        <v>2.352552891671356e-05</v>
+        <v>0.0001721924658058197</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>(1681, 1682)</t>
+          <t>(1604, 1606)</t>
         </is>
       </c>
       <c r="B405" t="n">
-        <v>1.836043168271977e-05</v>
+        <v>0.0001717606357079701</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>(1682, 1684)</t>
+          <t>(1606, 1607)</t>
         </is>
       </c>
       <c r="B406" t="n">
-        <v>1.533181868930149e-05</v>
+        <v>0.0001733727832372884</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>(1684, 1685)</t>
+          <t>(1607, 1609)</t>
         </is>
       </c>
       <c r="B407" t="n">
-        <v>1.275247358260274e-05</v>
+        <v>0.0001724548284689252</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>(1685, 1687)</t>
+          <t>(1609, 1610)</t>
         </is>
       </c>
       <c r="B408" t="n">
-        <v>1.017931829780781e-05</v>
+        <v>0.0001714340393364771</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>(1687, 1688)</t>
+          <t>(1610, 1612)</t>
         </is>
       </c>
       <c r="B409" t="n">
-        <v>7.690857117764449e-06</v>
+        <v>0.0001708394232957366</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>(1688, 1690)</t>
+          <t>(1612, 1613)</t>
         </is>
       </c>
       <c r="B410" t="n">
-        <v>5.390445092681274e-06</v>
+        <v>0.0001706360768421526</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>(1690, 1691)</t>
+          <t>(1613, 1615)</t>
         </is>
       </c>
       <c r="B411" t="n">
-        <v>3.095322336383763e-06</v>
+        <v>0.0001699153889275138</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
+          <t>(1615, 1616)</t>
+        </is>
+      </c>
+      <c r="B412" t="n">
+        <v>0.0001695356802986854</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>(1616, 1618)</t>
+        </is>
+      </c>
+      <c r="B413" t="n">
+        <v>0.00016923086376685</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>(1618, 1619)</t>
+        </is>
+      </c>
+      <c r="B414" t="n">
+        <v>0.0001687999233945973</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>(1619, 1621)</t>
+        </is>
+      </c>
+      <c r="B415" t="n">
+        <v>0.0001703605203545621</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>(1621, 1622)</t>
+        </is>
+      </c>
+      <c r="B416" t="n">
+        <v>0.0001690885394922059</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>(1622, 1624)</t>
+        </is>
+      </c>
+      <c r="B417" t="n">
+        <v>0.0001685434078068685</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>(1624, 1625)</t>
+        </is>
+      </c>
+      <c r="B418" t="n">
+        <v>0.0001678447206441982</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>(1625, 1627)</t>
+        </is>
+      </c>
+      <c r="B419" t="n">
+        <v>0.0001675104000225807</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>(1627, 1628)</t>
+        </is>
+      </c>
+      <c r="B420" t="n">
+        <v>0.0001671816451468608</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>(1628, 1630)</t>
+        </is>
+      </c>
+      <c r="B421" t="n">
+        <v>0.0001667733525945991</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>(1630, 1631)</t>
+        </is>
+      </c>
+      <c r="B422" t="n">
+        <v>0.0001663655543220675</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>(1631, 1633)</t>
+        </is>
+      </c>
+      <c r="B423" t="n">
+        <v>0.0001660073008574041</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>(1633, 1634)</t>
+        </is>
+      </c>
+      <c r="B424" t="n">
+        <v>0.0001659176171251758</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>(1634, 1636)</t>
+        </is>
+      </c>
+      <c r="B425" t="n">
+        <v>0.0001653754958837623</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>(1636, 1637)</t>
+        </is>
+      </c>
+      <c r="B426" t="n">
+        <v>0.0001651248860311645</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>(1637, 1639)</t>
+        </is>
+      </c>
+      <c r="B427" t="n">
+        <v>0.0001646359156567628</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>(1639, 1640)</t>
+        </is>
+      </c>
+      <c r="B428" t="n">
+        <v>0.0001644404328039518</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>(1640, 1642)</t>
+        </is>
+      </c>
+      <c r="B429" t="n">
+        <v>0.000164343302718073</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>(1642, 1643)</t>
+        </is>
+      </c>
+      <c r="B430" t="n">
+        <v>0.0001637534892845887</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>(1643, 1645)</t>
+        </is>
+      </c>
+      <c r="B431" t="n">
+        <v>0.0001633132481927607</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>(1645, 1646)</t>
+        </is>
+      </c>
+      <c r="B432" t="n">
+        <v>0.00016322159547094</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>(1646, 1648)</t>
+        </is>
+      </c>
+      <c r="B433" t="n">
+        <v>0.0001628375422121047</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>(1648, 1649)</t>
+        </is>
+      </c>
+      <c r="B434" t="n">
+        <v>0.0001622641699820193</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>(1649, 1651)</t>
+        </is>
+      </c>
+      <c r="B435" t="n">
+        <v>0.0001622786016389114</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>(1651, 1652)</t>
+        </is>
+      </c>
+      <c r="B436" t="n">
+        <v>0.0001617077134594813</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>(1652, 1654)</t>
+        </is>
+      </c>
+      <c r="B437" t="n">
+        <v>0.0001613458095904403</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>(1654, 1655)</t>
+        </is>
+      </c>
+      <c r="B438" t="n">
+        <v>0.0001610916105501916</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>(1655, 1657)</t>
+        </is>
+      </c>
+      <c r="B439" t="n">
+        <v>0.0001604382796684719</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>(1657, 1658)</t>
+        </is>
+      </c>
+      <c r="B440" t="n">
+        <v>0.0001591607797117573</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>(1658, 1660)</t>
+        </is>
+      </c>
+      <c r="B441" t="n">
+        <v>0.0001600890340185323</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>(1660, 1661)</t>
+        </is>
+      </c>
+      <c r="B442" t="n">
+        <v>0.0001599826235211741</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>(1661, 1663)</t>
+        </is>
+      </c>
+      <c r="B443" t="n">
+        <v>0.000159915617432189</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>(1663, 1664)</t>
+        </is>
+      </c>
+      <c r="B444" t="n">
+        <v>0.0001425798202869425</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>(1664, 1666)</t>
+        </is>
+      </c>
+      <c r="B445" t="n">
+        <v>0.0001141725906412106</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>(1666, 1667)</t>
+        </is>
+      </c>
+      <c r="B446" t="n">
+        <v>9.846518461378658e-05</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>(1667, 1669)</t>
+        </is>
+      </c>
+      <c r="B447" t="n">
+        <v>8.609984534136195e-05</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>(1669, 1670)</t>
+        </is>
+      </c>
+      <c r="B448" t="n">
+        <v>7.537847708341254e-05</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>(1670, 1672)</t>
+        </is>
+      </c>
+      <c r="B449" t="n">
+        <v>6.617312453781362e-05</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>(1672, 1673)</t>
+        </is>
+      </c>
+      <c r="B450" t="n">
+        <v>5.763721502982127e-05</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>(1673, 1675)</t>
+        </is>
+      </c>
+      <c r="B451" t="n">
+        <v>4.983638958698573e-05</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>(1675, 1676)</t>
+        </is>
+      </c>
+      <c r="B452" t="n">
+        <v>4.269106292174919e-05</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>(1676, 1678)</t>
+        </is>
+      </c>
+      <c r="B453" t="n">
+        <v>3.598660861792859e-05</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>(1678, 1679)</t>
+        </is>
+      </c>
+      <c r="B454" t="n">
+        <v>2.953816240446095e-05</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>(1679, 1681)</t>
+        </is>
+      </c>
+      <c r="B455" t="n">
+        <v>2.352552891671356e-05</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>(1681, 1682)</t>
+        </is>
+      </c>
+      <c r="B456" t="n">
+        <v>1.836043168271977e-05</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>(1682, 1684)</t>
+        </is>
+      </c>
+      <c r="B457" t="n">
+        <v>1.533181868930149e-05</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>(1684, 1685)</t>
+        </is>
+      </c>
+      <c r="B458" t="n">
+        <v>1.275247358260274e-05</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>(1685, 1687)</t>
+        </is>
+      </c>
+      <c r="B459" t="n">
+        <v>1.017931829780781e-05</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>(1687, 1688)</t>
+        </is>
+      </c>
+      <c r="B460" t="n">
+        <v>7.690857117764449e-06</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>(1688, 1690)</t>
+        </is>
+      </c>
+      <c r="B461" t="n">
+        <v>5.390445092681274e-06</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>(1690, 1691)</t>
+        </is>
+      </c>
+      <c r="B462" t="n">
+        <v>3.095322336383763e-06</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
           <t>(1691, 1693)</t>
         </is>
       </c>
-      <c r="B412" t="n">
+      <c r="B463" t="n">
         <v>8.315551407924062e-07</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>(1693, 1694)</t>
+        </is>
+      </c>
+      <c r="B464" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>(1694, 1696)</t>
+        </is>
+      </c>
+      <c r="B465" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>(1696, 1697)</t>
+        </is>
+      </c>
+      <c r="B466" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>(1697, 1699)</t>
+        </is>
+      </c>
+      <c r="B467" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
